--- a/STUDIO/trunk/org.openl.rules.demo/src/org.openl.rules.demo.tutorials/Tutorial 5 - Introduction to TBasic Tables/Main.xlsx
+++ b/STUDIO/trunk/org.openl.rules.demo/src/org.openl.rules.demo.tutorials/Tutorial 5 - Introduction to TBasic Tables/Main.xlsx
@@ -2554,6 +2554,9 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2568,9 +2571,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3323,8 +3323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3925,7 +3925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H192"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
@@ -3942,12 +3942,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
       <c r="F3" s="30"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -4472,12 +4472,12 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="16"/>
-      <c r="C52" s="82" t="s">
+      <c r="C52" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
     </row>
@@ -4492,10 +4492,10 @@
     </row>
     <row r="54" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B54" s="16"/>
-      <c r="C54" s="83" t="s">
+      <c r="C54" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="83"/>
+      <c r="D54" s="84"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
@@ -5254,7 +5254,7 @@
       <c r="C117" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D117" s="84" t="s">
+      <c r="D117" s="85" t="s">
         <v>74</v>
       </c>
       <c r="E117" s="38" t="s">
@@ -5267,7 +5267,7 @@
     <row r="118" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B118" s="16"/>
       <c r="C118" s="6"/>
-      <c r="D118" s="85"/>
+      <c r="D118" s="86"/>
       <c r="E118" s="44" t="s">
         <v>8</v>
       </c>
@@ -5280,7 +5280,7 @@
     <row r="119" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B119" s="16"/>
       <c r="C119" s="6"/>
-      <c r="D119" s="85"/>
+      <c r="D119" s="86"/>
       <c r="E119" s="45" t="s">
         <v>12</v>
       </c>
@@ -5293,7 +5293,7 @@
     <row r="120" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B120" s="16"/>
       <c r="C120" s="6"/>
-      <c r="D120" s="85"/>
+      <c r="D120" s="86"/>
       <c r="E120" s="44" t="s">
         <v>10</v>
       </c>
@@ -5304,7 +5304,7 @@
     <row r="121" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B121" s="16"/>
       <c r="C121" s="12"/>
-      <c r="D121" s="86"/>
+      <c r="D121" s="87"/>
       <c r="E121" s="55" t="s">
         <v>12</v>
       </c>
@@ -5512,12 +5512,12 @@
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B140" s="16"/>
-      <c r="C140" s="82" t="s">
+      <c r="C140" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="D140" s="82"/>
-      <c r="E140" s="82"/>
-      <c r="F140" s="82"/>
+      <c r="D140" s="83"/>
+      <c r="E140" s="83"/>
+      <c r="F140" s="83"/>
       <c r="G140" s="16"/>
       <c r="H140" s="16"/>
     </row>
@@ -5541,13 +5541,13 @@
     </row>
     <row r="143" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B143" s="16"/>
-      <c r="C143" s="83" t="s">
+      <c r="C143" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="D143" s="83"/>
-      <c r="E143" s="83"/>
-      <c r="F143" s="83"/>
-      <c r="G143" s="83"/>
+      <c r="D143" s="84"/>
+      <c r="E143" s="84"/>
+      <c r="F143" s="84"/>
+      <c r="G143" s="84"/>
       <c r="H143" s="16"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.3">
@@ -5796,12 +5796,12 @@
     </row>
     <row r="166" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B166" s="16"/>
-      <c r="C166" s="83" t="s">
+      <c r="C166" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="D166" s="83"/>
-      <c r="E166" s="83"/>
-      <c r="F166" s="83"/>
+      <c r="D166" s="84"/>
+      <c r="E166" s="84"/>
+      <c r="F166" s="84"/>
       <c r="G166" s="16"/>
       <c r="H166" s="16"/>
     </row>
@@ -6081,12 +6081,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C31:F33"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C12:F22"/>
     <mergeCell ref="C52:F52"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C140:F140"/>
@@ -6103,6 +6097,12 @@
     <mergeCell ref="C81:F85"/>
     <mergeCell ref="D88:G88"/>
     <mergeCell ref="C65:F72"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C31:F33"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C12:F22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11 D64">
